--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-labresult.xlsx
@@ -958,7 +958,7 @@
     <t>MEDIS 臨床検査マスター</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationLabResultCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationLabResultCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -2406,7 +2406,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.45703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.2109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-labresult.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-labresult.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="624">
   <si>
     <t>Property</t>
   </si>
@@ -273,10 +273,6 @@
   </si>
   <si>
     <t>すべてのObservation（検査測定や観察事実）の制約プロファイル</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2649,19 +2645,19 @@
         <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>82</v>
@@ -2672,7 +2668,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2683,28 +2679,28 @@
         <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2754,13 +2750,13 @@
         <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>82</v>
@@ -2789,7 +2785,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2800,25 +2796,25 @@
         <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2869,19 +2865,19 @@
         <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>82</v>
@@ -2904,7 +2900,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2915,28 +2911,28 @@
         <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2986,19 +2982,19 @@
         <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>82</v>
@@ -3021,7 +3017,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -3032,7 +3028,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>82</v>
@@ -3044,16 +3040,16 @@
         <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -3079,43 +3075,43 @@
         <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>82</v>
@@ -3138,18 +3134,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>82</v>
@@ -3161,16 +3157,16 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3220,31 +3216,31 @@
         <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>82</v>
@@ -3255,11 +3251,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3278,16 +3274,16 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3337,7 +3333,7 @@
         <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -3361,7 +3357,7 @@
         <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>82</v>
@@ -3372,11 +3368,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3395,16 +3391,16 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3454,7 +3450,7 @@
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>80</v>
@@ -3466,7 +3462,7 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>82</v>
@@ -3478,7 +3474,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3489,11 +3485,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3506,25 +3502,25 @@
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>82</v>
@@ -3573,7 +3569,7 @@
         <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>80</v>
@@ -3585,7 +3581,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>82</v>
@@ -3597,7 +3593,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3608,7 +3604,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3628,22 +3624,22 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>82</v>
@@ -3692,7 +3688,7 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>80</v>
@@ -3704,22 +3700,22 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>82</v>
@@ -3727,7 +3723,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3738,7 +3734,7 @@
         <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>82</v>
@@ -3750,13 +3746,13 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3807,31 +3803,31 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>82</v>
@@ -3842,11 +3838,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3865,16 +3861,16 @@
         <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3912,19 +3908,19 @@
         <v>82</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AC13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD13" t="s" s="2">
+      <c r="AE13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -3936,7 +3932,7 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>82</v>
@@ -3948,7 +3944,7 @@
         <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
@@ -3959,7 +3955,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3970,31 +3966,31 @@
         <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>82</v>
@@ -4019,55 +4015,55 @@
         <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>82</v>
@@ -4078,7 +4074,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -4089,31 +4085,31 @@
         <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>82</v>
@@ -4138,55 +4134,55 @@
         <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>82</v>
@@ -4197,7 +4193,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4208,31 +4204,31 @@
         <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>82</v>
@@ -4245,67 +4241,67 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>82</v>
@@ -4316,7 +4312,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4327,28 +4323,28 @@
         <v>80</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4362,67 +4358,67 @@
         <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
@@ -4433,7 +4429,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4444,25 +4440,25 @@
         <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4513,31 +4509,31 @@
         <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>82</v>
@@ -4548,7 +4544,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4559,28 +4555,28 @@
         <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4630,31 +4626,31 @@
         <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
@@ -4665,11 +4661,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4685,22 +4681,22 @@
         <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>82</v>
@@ -4749,7 +4745,7 @@
         <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>80</v>
@@ -4761,19 +4757,19 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
@@ -4784,11 +4780,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4804,19 +4800,19 @@
         <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4866,7 +4862,7 @@
         <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>80</v>
@@ -4878,19 +4874,19 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>82</v>
@@ -4901,7 +4897,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4909,34 +4905,34 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="I22" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>82</v>
@@ -4961,58 +4957,58 @@
         <v>82</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5020,7 +5016,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5028,7 +5024,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>81</v>
@@ -5043,19 +5039,19 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>82</v>
@@ -5080,29 +5076,29 @@
         <v>82</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA23" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
@@ -5114,7 +5110,7 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>82</v>
@@ -5126,10 +5122,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5137,7 +5133,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5148,7 +5144,7 @@
         <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>82</v>
@@ -5160,13 +5156,13 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5217,31 +5213,31 @@
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
@@ -5252,11 +5248,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5275,16 +5271,16 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5322,19 +5318,19 @@
         <v>82</v>
       </c>
       <c r="AA25" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AB25" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AB25" t="s" s="2">
+      <c r="AC25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD25" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AC25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD25" t="s" s="2">
+      <c r="AE25" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
@@ -5346,7 +5342,7 @@
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>82</v>
@@ -5358,7 +5354,7 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
@@ -5369,7 +5365,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5389,22 +5385,22 @@
         <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>82</v>
@@ -5453,7 +5449,7 @@
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>80</v>
@@ -5465,7 +5461,7 @@
         <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>82</v>
@@ -5474,10 +5470,10 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
@@ -5488,7 +5484,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5499,31 +5495,31 @@
         <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>82</v>
@@ -5572,31 +5568,31 @@
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
@@ -5607,20 +5603,20 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>82</v>
@@ -5632,19 +5628,19 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>82</v>
@@ -5654,7 +5650,7 @@
         <v>82</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>82</v>
@@ -5669,14 +5665,14 @@
         <v>82</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5693,7 +5689,7 @@
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
@@ -5705,7 +5701,7 @@
         <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>82</v>
@@ -5717,10 +5713,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5728,42 +5724,42 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F29" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>82</v>
@@ -5788,66 +5784,66 @@
         <v>82</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5858,7 +5854,7 @@
         <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>82</v>
@@ -5870,13 +5866,13 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5927,31 +5923,31 @@
         <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>82</v>
@@ -5962,11 +5958,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5985,16 +5981,16 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6032,19 +6028,19 @@
         <v>82</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AB31" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AC31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD31" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AC31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD31" t="s" s="2">
+      <c r="AE31" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>80</v>
@@ -6056,7 +6052,7 @@
         <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>82</v>
@@ -6068,7 +6064,7 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>82</v>
@@ -6079,7 +6075,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6087,7 +6083,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>81</v>
@@ -6099,22 +6095,22 @@
         <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="L32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>82</v>
@@ -6163,7 +6159,7 @@
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>80</v>
@@ -6175,7 +6171,7 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>82</v>
@@ -6184,10 +6180,10 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
@@ -6198,7 +6194,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6209,7 +6205,7 @@
         <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>82</v>
@@ -6221,13 +6217,13 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6278,31 +6274,31 @@
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
@@ -6313,11 +6309,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6336,16 +6332,16 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L34" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6383,19 +6379,19 @@
         <v>82</v>
       </c>
       <c r="AA34" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AB34" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AB34" t="s" s="2">
+      <c r="AC34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD34" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AC34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD34" t="s" s="2">
+      <c r="AE34" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>80</v>
@@ -6407,7 +6403,7 @@
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>82</v>
@@ -6419,7 +6415,7 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
@@ -6430,7 +6426,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6441,31 +6437,31 @@
         <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>82</v>
@@ -6514,31 +6510,31 @@
         <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6549,7 +6545,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6560,28 +6556,28 @@
         <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6631,31 +6627,31 @@
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
@@ -6666,7 +6662,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6677,31 +6673,31 @@
         <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>82</v>
@@ -6750,31 +6746,31 @@
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
@@ -6785,7 +6781,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6796,31 +6792,31 @@
         <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>82</v>
@@ -6869,31 +6865,31 @@
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
@@ -6904,7 +6900,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6915,31 +6911,31 @@
         <v>80</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>82</v>
@@ -6988,31 +6984,31 @@
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
@@ -7023,7 +7019,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7031,34 +7027,34 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>82</v>
@@ -7107,31 +7103,31 @@
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
@@ -7142,7 +7138,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7150,34 +7146,34 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F41" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>82</v>
@@ -7226,34 +7222,34 @@
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7261,7 +7257,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7281,19 +7277,19 @@
         <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7343,7 +7339,7 @@
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>80</v>
@@ -7355,7 +7351,7 @@
         <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>82</v>
@@ -7364,13 +7360,13 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7378,42 +7374,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J43" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>82</v>
@@ -7462,34 +7458,34 @@
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AK43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7497,42 +7493,42 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>82</v>
@@ -7581,34 +7577,34 @@
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7616,7 +7612,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7627,28 +7623,28 @@
         <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7698,19 +7694,19 @@
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>82</v>
@@ -7719,13 +7715,13 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7733,7 +7729,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7753,22 +7749,22 @@
         <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>82</v>
@@ -7817,7 +7813,7 @@
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>80</v>
@@ -7829,22 +7825,22 @@
         <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7852,7 +7848,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7863,31 +7859,31 @@
         <v>80</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J47" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>82</v>
@@ -7924,55 +7920,55 @@
         <v>82</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD47" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH47" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AE47" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH47" t="s" s="2">
+      <c r="AI47" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AI47" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>82</v>
@@ -7982,31 +7978,31 @@
         <v>80</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J48" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>82</v>
@@ -8055,45 +8051,45 @@
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AI48" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>82</v>
@@ -8103,31 +8099,31 @@
         <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>82</v>
@@ -8176,45 +8172,45 @@
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AI49" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>82</v>
@@ -8224,31 +8220,31 @@
         <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>82</v>
@@ -8297,42 +8293,42 @@
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AI50" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8343,7 +8339,7 @@
         <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>82</v>
@@ -8355,19 +8351,19 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>82</v>
@@ -8392,55 +8388,55 @@
         <v>82</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH51" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH51" t="s" s="2">
+      <c r="AI51" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8451,11 +8447,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8474,19 +8470,19 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>82</v>
@@ -8511,14 +8507,14 @@
         <v>82</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8535,7 +8531,7 @@
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>80</v>
@@ -8547,30 +8543,30 @@
         <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>451</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8593,19 +8589,19 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>82</v>
@@ -8654,7 +8650,7 @@
         <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>80</v>
@@ -8666,7 +8662,7 @@
         <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>82</v>
@@ -8675,10 +8671,10 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
@@ -8689,7 +8685,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8700,7 +8696,7 @@
         <v>80</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>82</v>
@@ -8712,13 +8708,13 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8769,31 +8765,31 @@
         <v>82</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
@@ -8804,11 +8800,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8827,16 +8823,16 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K55" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L55" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8874,19 +8870,19 @@
         <v>82</v>
       </c>
       <c r="AA55" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AB55" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AB55" t="s" s="2">
+      <c r="AC55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD55" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AC55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD55" t="s" s="2">
+      <c r="AE55" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>80</v>
@@ -8898,7 +8894,7 @@
         <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>82</v>
@@ -8910,7 +8906,7 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
@@ -8921,7 +8917,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8932,28 +8928,28 @@
         <v>80</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J56" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9003,31 +8999,31 @@
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
@@ -9038,7 +9034,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9049,25 +9045,25 @@
         <v>80</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J57" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -9118,31 +9114,31 @@
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -9153,7 +9149,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9161,31 +9157,31 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J58" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9235,31 +9231,31 @@
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -9270,7 +9266,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9281,7 +9277,7 @@
         <v>80</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>82</v>
@@ -9293,16 +9289,16 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9328,66 +9324,66 @@
         <v>82</v>
       </c>
       <c r="W59" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="X59" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="X59" t="s" s="2">
+      <c r="Y59" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>492</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9398,7 +9394,7 @@
         <v>80</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>82</v>
@@ -9410,19 +9406,19 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>82</v>
@@ -9447,55 +9443,55 @@
         <v>82</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -9506,7 +9502,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9514,10 +9510,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>82</v>
@@ -9529,16 +9525,16 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9588,42 +9584,42 @@
         <v>82</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>510</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9634,7 +9630,7 @@
         <v>80</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>82</v>
@@ -9646,16 +9642,16 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9705,42 +9701,42 @@
         <v>82</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>519</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9763,19 +9759,19 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>82</v>
@@ -9824,7 +9820,7 @@
         <v>82</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>80</v>
@@ -9836,19 +9832,19 @@
         <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
@@ -9859,7 +9855,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9870,7 +9866,7 @@
         <v>80</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>82</v>
@@ -9882,13 +9878,13 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9939,31 +9935,31 @@
         <v>82</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
@@ -9974,11 +9970,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9997,16 +9993,16 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K65" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L65" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10056,7 +10052,7 @@
         <v>82</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>80</v>
@@ -10068,7 +10064,7 @@
         <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>82</v>
@@ -10080,7 +10076,7 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -10091,11 +10087,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10108,25 +10104,25 @@
         <v>82</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>82</v>
@@ -10175,7 +10171,7 @@
         <v>82</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>80</v>
@@ -10187,7 +10183,7 @@
         <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>82</v>
@@ -10199,7 +10195,7 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -10210,7 +10206,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10221,7 +10217,7 @@
         <v>80</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>82</v>
@@ -10233,16 +10229,16 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10292,31 +10288,31 @@
         <v>82</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH67" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AI67" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10327,7 +10323,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10338,7 +10334,7 @@
         <v>80</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>82</v>
@@ -10350,16 +10346,16 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10409,31 +10405,31 @@
         <v>82</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH68" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AI68" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="AM68" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10444,7 +10440,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10455,7 +10451,7 @@
         <v>80</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>82</v>
@@ -10467,19 +10463,19 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>82</v>
@@ -10504,55 +10500,55 @@
         <v>82</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK69" t="s" s="2">
+      <c r="AL69" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>556</v>
-      </c>
       <c r="AM69" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -10563,7 +10559,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10586,19 +10582,19 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>82</v>
@@ -10623,14 +10619,14 @@
         <v>82</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>563</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10647,7 +10643,7 @@
         <v>82</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>80</v>
@@ -10659,19 +10655,19 @@
         <v>82</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>556</v>
-      </c>
       <c r="AM70" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10682,7 +10678,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10693,7 +10689,7 @@
         <v>80</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>82</v>
@@ -10705,19 +10701,19 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>82</v>
@@ -10766,19 +10762,19 @@
         <v>82</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>82</v>
@@ -10790,7 +10786,7 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -10801,7 +10797,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10812,7 +10808,7 @@
         <v>80</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>82</v>
@@ -10824,16 +10820,16 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>573</v>
-      </c>
       <c r="M72" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10883,19 +10879,19 @@
         <v>82</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>82</v>
@@ -10904,10 +10900,10 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10918,7 +10914,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10938,19 +10934,19 @@
         <v>82</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -11000,7 +10996,7 @@
         <v>82</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>80</v>
@@ -11012,7 +11008,7 @@
         <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>82</v>
@@ -11021,10 +11017,10 @@
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -11035,7 +11031,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11055,19 +11051,19 @@
         <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -11117,7 +11113,7 @@
         <v>82</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>80</v>
@@ -11129,7 +11125,7 @@
         <v>82</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>82</v>
@@ -11138,10 +11134,10 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11152,7 +11148,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11172,22 +11168,22 @@
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>82</v>
@@ -11236,7 +11232,7 @@
         <v>82</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>80</v>
@@ -11248,7 +11244,7 @@
         <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>82</v>
@@ -11257,10 +11253,10 @@
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11271,7 +11267,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11282,7 +11278,7 @@
         <v>80</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>82</v>
@@ -11294,13 +11290,13 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11351,31 +11347,31 @@
         <v>82</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -11386,11 +11382,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11409,16 +11405,16 @@
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K77" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L77" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11468,7 +11464,7 @@
         <v>82</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>80</v>
@@ -11480,7 +11476,7 @@
         <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>82</v>
@@ -11492,7 +11488,7 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11503,11 +11499,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11520,25 +11516,25 @@
         <v>82</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>82</v>
@@ -11587,7 +11583,7 @@
         <v>82</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>80</v>
@@ -11599,7 +11595,7 @@
         <v>82</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>82</v>
@@ -11611,7 +11607,7 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11622,7 +11618,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11630,34 +11626,34 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F79" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M79" t="s" s="2">
-        <v>601</v>
-      </c>
       <c r="N79" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>82</v>
@@ -11682,58 +11678,58 @@
         <v>82</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="Y79" t="s" s="2">
+      <c r="Z79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="AL79" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11741,7 +11737,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11752,31 +11748,31 @@
         <v>80</v>
       </c>
       <c r="F80" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J80" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="N80" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>82</v>
@@ -11825,42 +11821,42 @@
         <v>82</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11871,7 +11867,7 @@
         <v>80</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>82</v>
@@ -11883,19 +11879,19 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>614</v>
-      </c>
       <c r="N81" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>82</v>
@@ -11920,55 +11916,55 @@
         <v>82</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y81" t="s" s="2">
+      <c r="Z81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH81" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH81" t="s" s="2">
+      <c r="AI81" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11979,11 +11975,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -12002,19 +11998,19 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>82</v>
@@ -12039,14 +12035,14 @@
         <v>82</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>82</v>
       </c>
@@ -12063,7 +12059,7 @@
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>80</v>
@@ -12075,30 +12071,30 @@
         <v>82</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AM82" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>451</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12124,16 +12120,16 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>82</v>
@@ -12182,7 +12178,7 @@
         <v>82</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>80</v>
@@ -12194,7 +12190,7 @@
         <v>82</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>82</v>
@@ -12203,10 +12199,10 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
